--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value85.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value85.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.177371670682885</v>
+        <v>2.502111673355103</v>
       </c>
       <c r="B1">
-        <v>1.27307127911682</v>
+        <v>5.106636524200439</v>
       </c>
       <c r="C1">
-        <v>1.457038717314928</v>
+        <v>0.4210483431816101</v>
       </c>
       <c r="D1">
-        <v>2.343905102617201</v>
+        <v>0.1803224384784698</v>
       </c>
       <c r="E1">
-        <v>5.225631743624568</v>
+        <v>0.1497888714075089</v>
       </c>
     </row>
   </sheetData>
